--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H2">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I2">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J2">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5901906666666666</v>
+        <v>0.293221</v>
       </c>
       <c r="N2">
-        <v>1.770572</v>
+        <v>0.879663</v>
       </c>
       <c r="O2">
-        <v>0.05042357210835777</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P2">
-        <v>0.05042357210835777</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q2">
-        <v>2.360114834044889</v>
+        <v>0.7713801988326668</v>
       </c>
       <c r="R2">
-        <v>21.241033506404</v>
+        <v>6.942421789494</v>
       </c>
       <c r="S2">
-        <v>0.02497626600124628</v>
+        <v>0.01031063230562054</v>
       </c>
       <c r="T2">
-        <v>0.02497626600124628</v>
+        <v>0.01031063230562054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H3">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I3">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J3">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>32.229328</v>
       </c>
       <c r="O3">
-        <v>0.9178490591808264</v>
+        <v>0.9569854715114954</v>
       </c>
       <c r="P3">
-        <v>0.9178490591808263</v>
+        <v>0.9569854715114955</v>
       </c>
       <c r="Q3">
-        <v>42.96064498032177</v>
+        <v>28.26203380258489</v>
       </c>
       <c r="R3">
-        <v>386.6458048228959</v>
+        <v>254.358304223264</v>
       </c>
       <c r="S3">
-        <v>0.454637410491872</v>
+        <v>0.3777637009459767</v>
       </c>
       <c r="T3">
-        <v>0.4546374104918719</v>
+        <v>0.3777637009459767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H4">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I4">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J4">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371358</v>
+        <v>0.183427</v>
       </c>
       <c r="N4">
-        <v>1.114074</v>
+        <v>0.550281</v>
       </c>
       <c r="O4">
-        <v>0.03172736871081582</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="P4">
-        <v>0.03172736871081581</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="Q4">
-        <v>1.485024372702</v>
+        <v>0.4825437323086668</v>
       </c>
       <c r="R4">
-        <v>13.365219354318</v>
+        <v>4.342893590778001</v>
       </c>
       <c r="S4">
-        <v>0.01571549113454435</v>
+        <v>0.006449907584801428</v>
       </c>
       <c r="T4">
-        <v>0.01571549113454435</v>
+        <v>0.006449907584801429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.99311</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H5">
-        <v>11.97933</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I5">
-        <v>0.4946116928284643</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J5">
-        <v>0.4946116928284644</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5901906666666666</v>
+        <v>0.006232666666666667</v>
       </c>
       <c r="N5">
-        <v>1.770572</v>
+        <v>0.018698</v>
       </c>
       <c r="O5">
-        <v>0.05042357210835777</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="P5">
-        <v>0.05042357210835777</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="Q5">
-        <v>2.356696252973333</v>
+        <v>0.01639635514711111</v>
       </c>
       <c r="R5">
-        <v>21.21026627676</v>
+        <v>0.147567196324</v>
       </c>
       <c r="S5">
-        <v>0.02494008835897298</v>
+        <v>0.0002191614321058098</v>
       </c>
       <c r="T5">
-        <v>0.02494008835897298</v>
+        <v>0.0002191614321058098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>11.97933</v>
       </c>
       <c r="I6">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J6">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.74310933333333</v>
+        <v>0.293221</v>
       </c>
       <c r="N6">
-        <v>32.229328</v>
+        <v>0.879663</v>
       </c>
       <c r="O6">
-        <v>0.9178490591808264</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P6">
-        <v>0.9178490591808263</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q6">
-        <v>42.89841731002666</v>
+        <v>1.17086370731</v>
       </c>
       <c r="R6">
-        <v>386.08575579024</v>
+        <v>10.53777336579</v>
       </c>
       <c r="S6">
-        <v>0.4539788769224419</v>
+        <v>0.01565031768295097</v>
       </c>
       <c r="T6">
-        <v>0.4539788769224419</v>
+        <v>0.01565031768295097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>11.97933</v>
       </c>
       <c r="I7">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J7">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.371358</v>
+        <v>10.74310933333333</v>
       </c>
       <c r="N7">
-        <v>1.114074</v>
+        <v>32.229328</v>
       </c>
       <c r="O7">
-        <v>0.03172736871081582</v>
+        <v>0.9569854715114954</v>
       </c>
       <c r="P7">
-        <v>0.03172736871081581</v>
+        <v>0.9569854715114955</v>
       </c>
       <c r="Q7">
-        <v>1.48287334338</v>
+        <v>42.89841731002666</v>
       </c>
       <c r="R7">
-        <v>13.34586009042</v>
+        <v>386.08575579024</v>
       </c>
       <c r="S7">
-        <v>0.01569272754704946</v>
+        <v>0.5734005203220175</v>
       </c>
       <c r="T7">
-        <v>0.01569272754704946</v>
+        <v>0.5734005203220175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08120966666666667</v>
+        <v>3.99311</v>
       </c>
       <c r="H8">
-        <v>0.243629</v>
+        <v>11.97933</v>
       </c>
       <c r="I8">
-        <v>0.01005913954387315</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J8">
-        <v>0.01005913954387315</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5901906666666666</v>
+        <v>0.183427</v>
       </c>
       <c r="N8">
-        <v>1.770572</v>
+        <v>0.550281</v>
       </c>
       <c r="O8">
-        <v>0.05042357210835777</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="P8">
-        <v>0.05042357210835777</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="Q8">
-        <v>0.04792918730977778</v>
+        <v>0.7324441879700001</v>
       </c>
       <c r="R8">
-        <v>0.431362685788</v>
+        <v>6.59199769173</v>
       </c>
       <c r="S8">
-        <v>0.0005072177481385209</v>
+        <v>0.00979019518257781</v>
       </c>
       <c r="T8">
-        <v>0.0005072177481385209</v>
+        <v>0.009790195182577814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.99311</v>
+      </c>
+      <c r="H9">
+        <v>11.97933</v>
+      </c>
+      <c r="I9">
+        <v>0.5991736942634763</v>
+      </c>
+      <c r="J9">
+        <v>0.5991736942634763</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.08120966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.243629</v>
-      </c>
-      <c r="I9">
-        <v>0.01005913954387315</v>
-      </c>
-      <c r="J9">
-        <v>0.01005913954387315</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>10.74310933333333</v>
+        <v>0.006232666666666667</v>
       </c>
       <c r="N9">
-        <v>32.229328</v>
+        <v>0.018698</v>
       </c>
       <c r="O9">
-        <v>0.9178490591808264</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="P9">
-        <v>0.9178490591808263</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="Q9">
-        <v>0.8724443279235554</v>
+        <v>0.02488772359333333</v>
       </c>
       <c r="R9">
-        <v>7.851998951311998</v>
+        <v>0.22398951234</v>
       </c>
       <c r="S9">
-        <v>0.009232771766512618</v>
+        <v>0.0003326610759300065</v>
       </c>
       <c r="T9">
-        <v>0.009232771766512616</v>
+        <v>0.0003326610759300065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1030,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08120966666666667</v>
+        <v>0.04053866666666667</v>
       </c>
       <c r="H10">
-        <v>0.243629</v>
+        <v>0.121616</v>
       </c>
       <c r="I10">
-        <v>0.01005913954387315</v>
+        <v>0.00608290346801924</v>
       </c>
       <c r="J10">
-        <v>0.01005913954387315</v>
+        <v>0.006082903468019241</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.371358</v>
+        <v>0.293221</v>
       </c>
       <c r="N10">
-        <v>1.114074</v>
+        <v>0.879663</v>
       </c>
       <c r="O10">
-        <v>0.03172736871081582</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P10">
-        <v>0.03172736871081581</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q10">
-        <v>0.030157859394</v>
+        <v>0.01188678837866667</v>
       </c>
       <c r="R10">
-        <v>0.271420734546</v>
+        <v>0.106981095408</v>
       </c>
       <c r="S10">
-        <v>0.0003191500292220111</v>
+        <v>0.0001588844313771943</v>
       </c>
       <c r="T10">
-        <v>0.000319150029222011</v>
+        <v>0.0001588844313771944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04053866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.121616</v>
+      </c>
+      <c r="I11">
+        <v>0.00608290346801924</v>
+      </c>
+      <c r="J11">
+        <v>0.006082903468019241</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.74310933333333</v>
+      </c>
+      <c r="N11">
+        <v>32.229328</v>
+      </c>
+      <c r="O11">
+        <v>0.9569854715114954</v>
+      </c>
+      <c r="P11">
+        <v>0.9569854715114955</v>
+      </c>
+      <c r="Q11">
+        <v>0.4355113282275554</v>
+      </c>
+      <c r="R11">
+        <v>3.919601954047999</v>
+      </c>
+      <c r="S11">
+        <v>0.005821250243501303</v>
+      </c>
+      <c r="T11">
+        <v>0.005821250243501304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04053866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.121616</v>
+      </c>
+      <c r="I12">
+        <v>0.00608290346801924</v>
+      </c>
+      <c r="J12">
+        <v>0.006082903468019241</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.183427</v>
+      </c>
+      <c r="N12">
+        <v>0.550281</v>
+      </c>
+      <c r="O12">
+        <v>0.01633949433413</v>
+      </c>
+      <c r="P12">
+        <v>0.01633949433413</v>
+      </c>
+      <c r="Q12">
+        <v>0.007435886010666667</v>
+      </c>
+      <c r="R12">
+        <v>0.06692297409600001</v>
+      </c>
+      <c r="S12">
+        <v>9.939156675076009E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.939156675076013E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04053866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.121616</v>
+      </c>
+      <c r="I13">
+        <v>0.00608290346801924</v>
+      </c>
+      <c r="J13">
+        <v>0.006082903468019241</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.006232666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.018698</v>
+      </c>
+      <c r="O13">
+        <v>0.0005551997344257983</v>
+      </c>
+      <c r="P13">
+        <v>0.0005551997344257983</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002526639964444445</v>
+      </c>
+      <c r="R13">
+        <v>0.002273975968</v>
+      </c>
+      <c r="S13">
+        <v>3.37722638998205E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.37722638998205E-06</v>
       </c>
     </row>
   </sheetData>
